--- a/辅助工具/路线.xlsx
+++ b/辅助工具/路线.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fe\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29162CF-AF7D-41E0-AE44-1B02E8AADBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22356" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -66,46 +55,380 @@
     <t>红色党史教育</t>
   </si>
   <si>
+    <t>分局出发（车程40分钟）——沣水镇红色东高革命教育基地（40分钟）—（车程15分钟）—淄博知青博物馆（30分钟）—（车程30分钟）—红军师师史馆（40分钟）——返回（车程10分钟）\n\n1.乘车前往沣水镇红色东高革命教育基地。早8:30从分局乘车出发，前往沣水镇红色东高革命教育基地，大约9:10到达。 2.参观沣水镇红色东高革命教育基地。9:30开始参观，大约10:10结束。</t>
+  </si>
+  <si>
+    <t>【沣水镇红色东高革命教育基地】位于山东淄博市张店区沣水镇东高村。东高村是沣水镇“革命第一村”，是张店区重要的党性教育基地，同时也是革命传统教育和爱国主义教育的重要场所。基地包含红色东高纪念馆、赵克岭和曹文故居、红色文化广场三部分。红色东高纪念馆在沣水地区第一个党支部旧址上修缮扩建，由岗哨楼、红色东高纪念馆、致合堂药店遗址和党支部秘密活动室组成，集中展示了从东高村走出的10名高级将领和20多名抗日志士的事迹、资料、遗物等。赵克岭、曹文故居主要介绍两名烈士英勇牺牲的革命历史。主要包含以下看点：故居院内与党支部联络地道；赵克岭、曹文烈士故居；具有八百年历史的国槐，曹文烈士被捕后被吊在古槐上严刑拷打，最终被敌人残忍杀害。红色文化广场主要介绍沣水镇、东高村建村发展史。\n【淄博知青博物馆】位于淄博市经开区沣水镇张一村工业园一路，于2019年建立，占地面积约1500亩，该馆共收集淄博知青在各个不同时期的文件、图片、资料一千六百多件，知青使用过的生活物品、乐器、书籍等各类实物近千件。以知青下乡地点为脉络，用质朴自然的展陈形式，客观真实地反映了当年淄博知青的生活情景和广大知情战斗天地的精神风貌。\n【红军师师史馆】位于山东淄博张店区人民西路48号。71345部队前身为中国工农红军第一方面军第一军团第一师，在开国大典上代表人民解放军陆军主力组建12支步兵方队，被誉为“开国大典红一师”。红军师师史馆馆名由开国上将杨成武将军亲提，馆内由序幕厅、第一展厅、第二展厅和黑陶画厅组成，展示了“开国大典红一师”的诞生、战斗历程和精神风貌。</t>
+  </si>
+  <si>
     <t>hsyx</t>
-  </si>
-  <si>
-    <t>分局出发（车程40分钟）——沣水镇红色东高革命教育基地（40分钟）—（车程15分钟）—淄博知青博物馆（30分钟）—（车程30分钟）—红军师师史馆（40分钟）——返回（车程10分钟）\n\n1.乘车前往沣水镇红色东高革命教育基地。早8:30从分局乘车出发，前往沣水镇红色东高革命教育基地，大约9:10到达。 2.参观沣水镇红色东高革命教育基地。9:30开始参观，大约10:10结束。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【沣水镇红色东高革命教育基地】位于山东淄博市张店区沣水镇东高村。东高村是沣水镇“革命第一村”，是张店区重要的党性教育基地，同时也是革命传统教育和爱国主义教育的重要场所。基地包含红色东高纪念馆、赵克岭和曹文故居、红色文化广场三部分。红色东高纪念馆在沣水地区第一个党支部旧址上修缮扩建，由岗哨楼、红色东高纪念馆、致合堂药店遗址和党支部秘密活动室组成，集中展示了从东高村走出的10名高级将领和20多名抗日志士的事迹、资料、遗物等。赵克岭、曹文故居主要介绍两名烈士英勇牺牲的革命历史。主要包含以下看点：故居院内与党支部联络地道；赵克岭、曹文烈士故居；具有八百年历史的国槐，曹文烈士被捕后被吊在古槐上严刑拷打，最终被敌人残忍杀害。红色文化广场主要介绍沣水镇、东高村建村发展史。\n【淄博知青博物馆】位于淄博市经开区沣水镇张一村工业园一路，于2019年建立，占地面积约1500亩，该馆共收集淄博知青在各个不同时期的文件、图片、资料一千六百多件，知青使用过的生活物品、乐器、书籍等各类实物近千件。以知青下乡地点为脉络，用质朴自然的展陈形式，客观真实地反映了当年淄博知青的生活情景和广大知情战斗天地的精神风貌。\n【红军师师史馆】位于山东淄博张店区人民西路48号。71345部队前身为中国工农红军第一方面军第一军团第一师，在开国大典上代表人民解放军陆军主力组建12支步兵方队，被誉为“开国大典红一师”。红军师师史馆馆名由开国上将杨成武将军亲提，馆内由序幕厅、第一展厅、第二展厅和黑陶画厅组成，展示了“开国大典红一师”的诞生、战斗历程和精神风貌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,24 +436,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -179,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -214,7 +826,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -388,33 +1000,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="25.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,40 +1053,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" ht="219" customHeight="1" spans="1:10">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>